--- a/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>128,04%</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-50,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 15,58</t>
+          <t>-7,73; 10,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 15,8</t>
+          <t>-15,08; 14,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 10,26</t>
+          <t>-25,73; 5,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,72; 17,62</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-51,71; 609,01</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-76,68; 343,84</t>
+          <t>-82,34; 516,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-91,06; 126,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>104,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-44,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>82,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 15,23</t>
+          <t>-2,97; 30,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 11,34</t>
+          <t>-44,79; 5,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 9,87</t>
+          <t>-12,62; 12,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 151,33</t>
+          <t>-5,76; 24,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 123,86</t>
+          <t>-14,93; 510,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,94; 146,39</t>
+          <t>-87,57; 44,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-75,99; 414,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-44,37; 587,53</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,49%</t>
+          <t>-3,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-36,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-48,35%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 11,51</t>
+          <t>-21,3; 9,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 7,56</t>
+          <t>-14,61; 12,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 0,16</t>
+          <t>-23,45; 3,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 60,91</t>
+          <t>-28,45; -1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 46,92</t>
+          <t>-49,65; 42,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 3,45</t>
+          <t>-47,25; 76,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-67,33; 22,25</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-73,1; -2,78</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,85</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,93</t>
+          <t>24,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>125,52%</t>
+          <t>134,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>374,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135,74%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 16,49</t>
+          <t>-1,63; 22,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 21,28</t>
+          <t>5,65; 27,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 23,71</t>
+          <t>14,66; 35,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 112,6</t>
+          <t>6,17; 30,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 192,44</t>
+          <t>-6,71; 181,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 292,32</t>
+          <t>29,89; 441,82</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>102,32; 1088,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 347,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>51,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>115,98%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 11,93</t>
+          <t>-10,03; 14,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 12,81</t>
+          <t>-6,7; 22,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 14,56</t>
+          <t>-12,14; 16,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 129,08</t>
+          <t>0,7; 32,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 107,63</t>
+          <t>-65,57; 297,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 182,49</t>
+          <t>-36,32; 286,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-56,59; 163,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 427,83</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>380,21%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,9%</t>
+          <t>318,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-43,69%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 18,94</t>
+          <t>-16,13; 12,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 22,3</t>
+          <t>-1,59; 25,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 5,6</t>
+          <t>-17,93; 6,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 348,55</t>
+          <t>-13,87; 23,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,5; —</t>
+          <t>-83,92; 388,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,68; 160,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,81; 209,71</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,79</t>
+          <t>0,06; 11,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,75</t>
+          <t>-5,33; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,23</t>
+          <t>-3,96; 7,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 59,8</t>
+          <t>0,82; 13,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 70,36</t>
+          <t>-0,15; 89,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 45,75</t>
+          <t>-25,9; 71,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 66,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 108,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>46,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-50,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>5.669319200264769</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.703663237591595</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.755906420083542</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.834011517465215</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.965163430113574</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3471895775930434</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4841254160972506</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +658,162 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 10,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 14,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,73; 5,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 17,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-82,34; 516,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-91,06; 126,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.936775730154693</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.55904819225927</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-24.12385975437329</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.737341657543915</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.813419551919934</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.909403202963411</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.57124722216581</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.17020948932937</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.715334830164664</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.66333495760086</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>6.736549547896252</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.373997440304696</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>104,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-44,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>82,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 30,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,79; 5,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,62; 12,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 24,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-14,93; 510,89</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,57; 44,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-75,99; 414,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,37; 587,53</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.54125427425737</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.99100236833494</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7783826261273968</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.708412609292667</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.9585616530441889</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4164687789686251</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07873867834325518</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8849509184418839</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-14,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-36,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-48,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.509153775718611</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-39.59531311377948</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.34345495283634</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.619460271720645</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2658666262748663</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8609193629108238</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7764876699830435</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4198879426859641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,3; 9,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,61; 12,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; 3,26</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,45; -1,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-49,65; 42,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,25; 76,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-67,33; 22,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-73,1; -2,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>33.11323581047247</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.874840046727652</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.85079846234876</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>26.31275311155648</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.628921708462705</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4822020635370377</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.09229116857042</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.863868840623188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +821,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>24,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,5</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>62,24%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>134,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>374,24%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>135,74%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.849978384844238</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.318182097865747</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.275686232343745</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-14.27483900356911</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.123916961803528</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.05526052072469362</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3636530757270762</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4847457337357536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 22,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 27,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>14,66; 35,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 30,58</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 181,68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 441,82</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>102,32; 1088,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>27,25; 347,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.85881230623844</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.42145193059602</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-24.60501118227011</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-28.20690960151849</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4905939741618273</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4890374483264137</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6732032327392066</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7289247793463801</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.10501712048922</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.83447334336056</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.689148740960206</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.4221104923188554</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5254218621379841</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7524003312865495</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2699873394189309</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.009300503776264808</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,38</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>15,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>51,73%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>115,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 14,01</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,7; 22,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,14; 16,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 32,04</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-65,57; 297,88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-36,32; 286,21</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-56,59; 163,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 427,83</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.552010858858</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.73619063977599</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>24.66232163868876</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>19.48964049893816</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6036473177124118</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.375185934453676</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>3.768083073001821</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.377960942039407</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,01</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-11,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>318,3%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-43,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.433992713299443</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.766384294341119</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>13.85245349735976</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.673350546692697</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.05517820455488109</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3004860762324459</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.9969200688086727</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2636116733493281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,13; 12,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 25,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-17,93; 6,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-13,87; 23,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-83,92; 388,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-50,81; 209,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>23.04105996792476</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>28.35740312242746</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>34.3704099130389</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>30.96658629540331</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.828502972611083</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.469102171282981</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>10.56825381915924</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.607520226126611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1021,289 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>46,21%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.786532782661117</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>7.457484154810329</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.018635723016296</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>15.1333822444225</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.2741068445210755</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.4823156811620894</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.1229200055992431</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.106173881529456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 11,4</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 9,17</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 7,41</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 13,27</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 89,95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 71,15</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 66,42</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 108,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.843360884907904</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.731517548877636</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.55557858317809</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.1713374738529215</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6042758690337022</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3792767444742747</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.5372914711075679</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.06076557793725931</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.73465034406416</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.2442073671225</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>18.00016618747769</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>31.6326815717907</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.178583033435979</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.708417343451989</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.92557159142962</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.142363667958175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.1064740864876429</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.45103220113559</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-5.449330608562418</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.836327295767775</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.01056607710595083</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.597648303136517</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.536929476226258</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.3221100255929184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.25102667841078</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.9517180853506729</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-21.13911865788397</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-11.81435111044397</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.8137504114600675</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.4272020927794552</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>14.12768180794102</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>29.39235747888445</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.513186064298744</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>28.601375790789</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>4.906789421540767</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>2.557938153168676</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>6.25072609660346</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.199249613572903</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.917517080966078</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7.263817652778354</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3860848296714783</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2533042711709071</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1357597961628385</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4955663836641875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.6484044252114349</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.709748331493031</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.151401040463265</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.236008563576308</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.02280338304016725</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1714501509754248</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.2374673386717373</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.06828853701566309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.5930417890665</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.994899087884818</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.504516692872275</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>13.66967237550038</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.9556379800759771</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.7890131544590546</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.6940001771287441</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.179239472531916</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1311,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
